--- a/Data/Empleados.xlsx
+++ b/Data/Empleados.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_CCF31FEA31AD256F0E2899134719DCEDFD79DD7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos_Programacion\Universidad\Semestre 2022-02\Proyecto TIC II\Calamita\Calamita\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70F4EF0-1117-41C1-8073-17F601CC2DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Empleados.arff" sheetId="1" r:id="rId1"/>
+    <sheet name="Empleados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="15">
   <si>
     <t>Sueldo</t>
   </si>
@@ -23,28 +39,28 @@
     <t>Casado</t>
   </si>
   <si>
-    <t>Coche</t>
+    <t>Carro</t>
   </si>
   <si>
     <t>Hijos</t>
   </si>
   <si>
-    <t>Alq/Prop</t>
+    <t>Alq_Prop</t>
   </si>
   <si>
-    <t>Sindic.</t>
+    <t>Sindicato</t>
   </si>
   <si>
-    <t>Bajas/A�o</t>
+    <t>Incapacidades</t>
   </si>
   <si>
-    <t>Antig�edad</t>
+    <t>Antiguedad</t>
   </si>
   <si>
     <t>Sexo</t>
   </si>
   <si>
-    <t>S�</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>No</t>
@@ -66,24 +82,324 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -91,19 +407,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -119,7 +620,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -161,12 +662,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -196,12 +697,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -371,20 +872,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -442,7 +948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20000</v>
       </c>
@@ -471,7 +977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15000</v>
       </c>
@@ -500,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30000</v>
       </c>
@@ -529,7 +1035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -558,7 +1064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>40000</v>
       </c>
@@ -587,7 +1093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25000</v>
       </c>
@@ -616,7 +1122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20000</v>
       </c>
@@ -645,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -674,7 +1180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>30000</v>
       </c>
@@ -703,7 +1209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50000</v>
       </c>
@@ -732,7 +1238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8000</v>
       </c>
@@ -761,7 +1267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20000</v>
       </c>
@@ -790,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10000</v>
       </c>
@@ -819,7 +1325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8000</v>
       </c>
@@ -848,7 +1354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10000</v>
       </c>
@@ -877,7 +1383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>20000</v>
       </c>
@@ -906,7 +1412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15000</v>
       </c>
@@ -935,7 +1441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -964,7 +1470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10000</v>
       </c>
@@ -993,7 +1499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>40000</v>
       </c>
@@ -1022,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>25000</v>
       </c>
@@ -1051,7 +1557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20000</v>
       </c>
@@ -1080,7 +1586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20000</v>
       </c>
@@ -1109,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30000</v>
       </c>
@@ -1138,7 +1644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50000</v>
       </c>
@@ -1167,7 +1673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>8000</v>
       </c>
@@ -1196,7 +1702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20000</v>
       </c>
@@ -1225,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10000</v>
       </c>
@@ -1254,7 +1760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8000</v>
       </c>
@@ -1283,7 +1789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10000</v>
       </c>
@@ -1312,7 +1818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20000</v>
       </c>
@@ -1341,7 +1847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15000</v>
       </c>
@@ -1370,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30000</v>
       </c>
@@ -1399,7 +1905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10000</v>
       </c>
@@ -1428,7 +1934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>40000</v>
       </c>
@@ -1457,7 +1963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>25000</v>
       </c>
@@ -1486,7 +1992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>20000</v>
       </c>
@@ -1515,7 +2021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20000</v>
       </c>
@@ -1544,7 +2050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>30000</v>
       </c>
@@ -1573,7 +2079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50000</v>
       </c>
@@ -1602,7 +2108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8000</v>
       </c>
@@ -1631,7 +2137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>20000</v>
       </c>
@@ -1660,7 +2166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10000</v>
       </c>
@@ -1689,7 +2195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8000</v>
       </c>
@@ -1718,7 +2224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10000</v>
       </c>
@@ -1747,7 +2253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20000</v>
       </c>
@@ -1776,7 +2282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>15000</v>
       </c>
@@ -1805,7 +2311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>30000</v>
       </c>
@@ -1834,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10000</v>
       </c>
@@ -1863,7 +2369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>40000</v>
       </c>
@@ -1892,7 +2398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25000</v>
       </c>
@@ -1921,7 +2427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20000</v>
       </c>
@@ -1950,7 +2456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20000</v>
       </c>
@@ -1979,7 +2485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>30000</v>
       </c>
@@ -2008,7 +2514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50000</v>
       </c>
@@ -2037,7 +2543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8000</v>
       </c>
@@ -2066,7 +2572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20000</v>
       </c>
@@ -2095,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10000</v>
       </c>
@@ -2124,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8000</v>
       </c>
@@ -2153,7 +2659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10000</v>
       </c>
@@ -2182,7 +2688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>20000</v>
       </c>
@@ -2211,7 +2717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15000</v>
       </c>
@@ -2240,7 +2746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>30000</v>
       </c>
@@ -2269,7 +2775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10000</v>
       </c>
@@ -2298,7 +2804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>40000</v>
       </c>
@@ -2327,7 +2833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>25000</v>
       </c>
@@ -2356,7 +2862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20000</v>
       </c>
@@ -2385,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>20000</v>
       </c>
@@ -2414,7 +2920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>30000</v>
       </c>
@@ -2443,7 +2949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>50000</v>
       </c>
@@ -2472,7 +2978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8000</v>
       </c>
@@ -2501,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20000</v>
       </c>
@@ -2530,7 +3036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10000</v>
       </c>
@@ -2559,7 +3065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8000</v>
       </c>
@@ -2588,7 +3094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10000</v>
       </c>
@@ -2617,7 +3123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20000</v>
       </c>
@@ -2646,7 +3152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15000</v>
       </c>
@@ -2675,7 +3181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>30000</v>
       </c>
@@ -2704,7 +3210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10000</v>
       </c>
@@ -2733,7 +3239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>40000</v>
       </c>
@@ -2762,7 +3268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>25000</v>
       </c>
@@ -2791,7 +3297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20000</v>
       </c>
@@ -2820,7 +3326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20000</v>
       </c>
@@ -2849,7 +3355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>30000</v>
       </c>
@@ -2878,7 +3384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>50000</v>
       </c>
@@ -2907,7 +3413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8000</v>
       </c>
@@ -2936,7 +3442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20000</v>
       </c>
@@ -2965,7 +3471,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10000</v>
       </c>
@@ -2994,7 +3500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>8000</v>
       </c>
@@ -3023,7 +3529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10000</v>
       </c>
@@ -3052,7 +3558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20000</v>
       </c>
@@ -3081,7 +3587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>15000</v>
       </c>
@@ -3110,7 +3616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>30000</v>
       </c>
@@ -3139,7 +3645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10000</v>
       </c>
@@ -3168,7 +3674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>40000</v>
       </c>
@@ -3197,7 +3703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>25000</v>
       </c>
@@ -3226,7 +3732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20000</v>
       </c>
@@ -3255,7 +3761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>20000</v>
       </c>
@@ -3284,7 +3790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>30000</v>
       </c>
@@ -3313,7 +3819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>50000</v>
       </c>
@@ -3342,7 +3848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>8000</v>
       </c>
@@ -3371,7 +3877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>20000</v>
       </c>
@@ -3400,7 +3906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10000</v>
       </c>
@@ -3429,7 +3935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>8000</v>
       </c>
@@ -3458,7 +3964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10000</v>
       </c>
@@ -3487,7 +3993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>20000</v>
       </c>
@@ -3516,7 +4022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>15000</v>
       </c>
@@ -3545,7 +4051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>30000</v>
       </c>
@@ -3574,7 +4080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10000</v>
       </c>
@@ -3603,7 +4109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>40000</v>
       </c>
@@ -3632,7 +4138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>25000</v>
       </c>
@@ -3661,7 +4167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20000</v>
       </c>
@@ -3690,7 +4196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20000</v>
       </c>
@@ -3719,7 +4225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>30000</v>
       </c>
@@ -3748,7 +4254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>50000</v>
       </c>
@@ -3777,7 +4283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>8000</v>
       </c>
@@ -3806,7 +4312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20000</v>
       </c>
@@ -3835,7 +4341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10000</v>
       </c>
@@ -3864,7 +4370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>8000</v>
       </c>
@@ -3893,7 +4399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>10000</v>
       </c>
@@ -3922,7 +4428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20000</v>
       </c>
@@ -3951,7 +4457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>15000</v>
       </c>
@@ -3980,7 +4486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>30000</v>
       </c>
@@ -4009,7 +4515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>10000</v>
       </c>
@@ -4038,7 +4544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>40000</v>
       </c>
@@ -4067,7 +4573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>25000</v>
       </c>
@@ -4096,7 +4602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>20000</v>
       </c>
@@ -4125,7 +4631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20000</v>
       </c>
@@ -4154,7 +4660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>30000</v>
       </c>
@@ -4183,7 +4689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>50000</v>
       </c>
@@ -4212,7 +4718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8000</v>
       </c>
@@ -4241,7 +4747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20000</v>
       </c>
@@ -4270,7 +4776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>10000</v>
       </c>
@@ -4299,7 +4805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>8000</v>
       </c>
@@ -4328,7 +4834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10000</v>
       </c>
@@ -4357,7 +4863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20000</v>
       </c>
@@ -4386,7 +4892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>15000</v>
       </c>
@@ -4415,7 +4921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>30000</v>
       </c>
@@ -4444,7 +4950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>10000</v>
       </c>
@@ -4473,7 +4979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>40000</v>
       </c>
@@ -4502,7 +5008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>25000</v>
       </c>
@@ -4531,7 +5037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>20000</v>
       </c>
@@ -4560,7 +5066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20000</v>
       </c>
@@ -4589,7 +5095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>30000</v>
       </c>
@@ -4618,7 +5124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>50000</v>
       </c>
@@ -4647,7 +5153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8000</v>
       </c>
@@ -4676,7 +5182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>20000</v>
       </c>
@@ -4705,7 +5211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10000</v>
       </c>
@@ -4734,7 +5240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>8000</v>
       </c>
@@ -4763,7 +5269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10000</v>
       </c>
@@ -4792,7 +5298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>20000</v>
       </c>
@@ -4821,7 +5327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>15000</v>
       </c>
@@ -4850,7 +5356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>30000</v>
       </c>
@@ -4879,7 +5385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10000</v>
       </c>
@@ -4908,7 +5414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>40000</v>
       </c>
@@ -4937,7 +5443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>25000</v>
       </c>
@@ -4966,7 +5472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>20000</v>
       </c>
@@ -4995,7 +5501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>20000</v>
       </c>
@@ -5024,7 +5530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>30000</v>
       </c>
@@ -5053,7 +5559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>50000</v>
       </c>
@@ -5082,7 +5588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>8000</v>
       </c>
@@ -5111,7 +5617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>20000</v>
       </c>
@@ -5140,7 +5646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>10000</v>
       </c>
@@ -5169,7 +5675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>8000</v>
       </c>
@@ -5198,7 +5704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>10000</v>
       </c>
@@ -5227,7 +5733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>20000</v>
       </c>
@@ -5256,7 +5762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>15000</v>
       </c>
@@ -5285,7 +5791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>30000</v>
       </c>
@@ -5314,7 +5820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>10000</v>
       </c>
@@ -5343,7 +5849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>40000</v>
       </c>
@@ -5372,7 +5878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>25000</v>
       </c>
@@ -5401,7 +5907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>20000</v>
       </c>
@@ -5430,7 +5936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>20000</v>
       </c>
@@ -5459,7 +5965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>30000</v>
       </c>
@@ -5488,7 +5994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>50000</v>
       </c>
@@ -5517,7 +6023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8000</v>
       </c>
@@ -5546,7 +6052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>20000</v>
       </c>
@@ -5575,7 +6081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>10000</v>
       </c>
@@ -5604,7 +6110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8000</v>
       </c>
@@ -5633,7 +6139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>10000</v>
       </c>
@@ -5662,7 +6168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>20000</v>
       </c>
@@ -5691,7 +6197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>15000</v>
       </c>
@@ -5720,7 +6226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>30000</v>
       </c>
@@ -5749,7 +6255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>10000</v>
       </c>
@@ -5778,7 +6284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>40000</v>
       </c>
@@ -5807,7 +6313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>25000</v>
       </c>
@@ -5836,7 +6342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>20000</v>
       </c>
@@ -5865,7 +6371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>20000</v>
       </c>
@@ -5894,7 +6400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>30000</v>
       </c>
@@ -5923,7 +6429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>50000</v>
       </c>
@@ -5952,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8000</v>
       </c>
@@ -5981,7 +6487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>20000</v>
       </c>
@@ -6010,7 +6516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>10000</v>
       </c>
@@ -6039,7 +6545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8000</v>
       </c>
@@ -6068,7 +6574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10000</v>
       </c>
@@ -6097,7 +6603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>20000</v>
       </c>
@@ -6126,7 +6632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>15000</v>
       </c>
@@ -6155,7 +6661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>30000</v>
       </c>
@@ -6184,7 +6690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>10000</v>
       </c>
@@ -6213,7 +6719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>40000</v>
       </c>
@@ -6242,7 +6748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>25000</v>
       </c>
@@ -6271,7 +6777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>20000</v>
       </c>
@@ -6300,7 +6806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>20000</v>
       </c>
@@ -6329,7 +6835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>30000</v>
       </c>
@@ -6358,7 +6864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>50000</v>
       </c>
@@ -6387,7 +6893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>8000</v>
       </c>
@@ -6416,7 +6922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20000</v>
       </c>
@@ -6445,7 +6951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>10000</v>
       </c>
@@ -6474,7 +6980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>8000</v>
       </c>
@@ -6503,7 +7009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>10000</v>
       </c>
@@ -6532,7 +7038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>20000</v>
       </c>
@@ -6561,7 +7067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>15000</v>
       </c>
@@ -6590,7 +7096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>30000</v>
       </c>
@@ -6619,7 +7125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>10000</v>
       </c>
@@ -6648,7 +7154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>40000</v>
       </c>
@@ -6677,7 +7183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>25000</v>
       </c>
@@ -6706,7 +7212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>20000</v>
       </c>
@@ -6735,7 +7241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>20000</v>
       </c>
@@ -6764,7 +7270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>30000</v>
       </c>
@@ -6793,7 +7299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>50000</v>
       </c>
@@ -6822,7 +7328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>8000</v>
       </c>
@@ -6851,7 +7357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>20000</v>
       </c>
@@ -6880,7 +7386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10000</v>
       </c>
@@ -6909,7 +7415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>8000</v>
       </c>
@@ -6938,7 +7444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>10000</v>
       </c>
@@ -6967,7 +7473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>20000</v>
       </c>
@@ -6996,7 +7502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>15000</v>
       </c>
@@ -7025,7 +7531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>30000</v>
       </c>
@@ -7054,7 +7560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>10000</v>
       </c>
@@ -7083,7 +7589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>40000</v>
       </c>
@@ -7112,7 +7618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>25000</v>
       </c>
@@ -7141,7 +7647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>20000</v>
       </c>
@@ -7170,7 +7676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>20000</v>
       </c>
@@ -7199,7 +7705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>30000</v>
       </c>
@@ -7228,7 +7734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>50000</v>
       </c>
@@ -7257,7 +7763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>8000</v>
       </c>
@@ -7286,7 +7792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>20000</v>
       </c>
@@ -7315,7 +7821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>10000</v>
       </c>
@@ -7344,7 +7850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>8000</v>
       </c>
@@ -7373,7 +7879,1059 @@
         <v>12</v>
       </c>
     </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>10000</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>11</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242">
+        <v>7</v>
+      </c>
+      <c r="H242">
+        <v>15</v>
+      </c>
+      <c r="I242" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>20000</v>
+      </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+      <c r="C243" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>11</v>
+      </c>
+      <c r="F243" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
+      </c>
+      <c r="I243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>15000</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244">
+        <v>5</v>
+      </c>
+      <c r="H244">
+        <v>10</v>
+      </c>
+      <c r="I244" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>30000</v>
+      </c>
+      <c r="B245" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245">
+        <v>15</v>
+      </c>
+      <c r="H245">
+        <v>7</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>10000</v>
+      </c>
+      <c r="B246" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>6</v>
+      </c>
+      <c r="I246" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>40000</v>
+      </c>
+      <c r="B247" t="s">
+        <v>10</v>
+      </c>
+      <c r="C247" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>11</v>
+      </c>
+      <c r="F247" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+      <c r="H247">
+        <v>16</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>25000</v>
+      </c>
+      <c r="B248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>11</v>
+      </c>
+      <c r="F248" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>8</v>
+      </c>
+      <c r="I248" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>20000</v>
+      </c>
+      <c r="B249" t="s">
+        <v>10</v>
+      </c>
+      <c r="C249" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249">
+        <v>2</v>
+      </c>
+      <c r="H249">
+        <v>6</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>20000</v>
+      </c>
+      <c r="B250" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250">
+        <v>3</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250">
+        <v>7</v>
+      </c>
+      <c r="H250">
+        <v>5</v>
+      </c>
+      <c r="I250" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>30000</v>
+      </c>
+      <c r="B251" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251">
+        <v>2</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="H251">
+        <v>20</v>
+      </c>
+      <c r="I251" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>50000</v>
+      </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252">
+        <v>2</v>
+      </c>
+      <c r="H252">
+        <v>12</v>
+      </c>
+      <c r="I252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>8000</v>
+      </c>
+      <c r="B253" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>20000</v>
+      </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>11</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254">
+        <v>27</v>
+      </c>
+      <c r="H254">
+        <v>5</v>
+      </c>
+      <c r="I254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>10000</v>
+      </c>
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+      <c r="C255" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>11</v>
+      </c>
+      <c r="F255" t="s">
+        <v>9</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>7</v>
+      </c>
+      <c r="I255" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>8000</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256">
+        <v>3</v>
+      </c>
+      <c r="H256">
+        <v>2</v>
+      </c>
+      <c r="I256" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>10000</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>11</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257">
+        <v>7</v>
+      </c>
+      <c r="H257">
+        <v>15</v>
+      </c>
+      <c r="I257" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>20000</v>
+      </c>
+      <c r="B258" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258" t="s">
+        <v>9</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>11</v>
+      </c>
+      <c r="F258" t="s">
+        <v>9</v>
+      </c>
+      <c r="G258">
+        <v>3</v>
+      </c>
+      <c r="H258">
+        <v>3</v>
+      </c>
+      <c r="I258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>15000</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9</v>
+      </c>
+      <c r="C259" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259">
+        <v>2</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259">
+        <v>5</v>
+      </c>
+      <c r="H259">
+        <v>10</v>
+      </c>
+      <c r="I259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>30000</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>11</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260">
+        <v>15</v>
+      </c>
+      <c r="H260">
+        <v>7</v>
+      </c>
+      <c r="I260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>10000</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" t="s">
+        <v>9</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>6</v>
+      </c>
+      <c r="I261" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>40000</v>
+      </c>
+      <c r="B262" t="s">
+        <v>10</v>
+      </c>
+      <c r="C262" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>11</v>
+      </c>
+      <c r="F262" t="s">
+        <v>9</v>
+      </c>
+      <c r="G262">
+        <v>3</v>
+      </c>
+      <c r="H262">
+        <v>16</v>
+      </c>
+      <c r="I262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>25000</v>
+      </c>
+      <c r="B263" t="s">
+        <v>10</v>
+      </c>
+      <c r="C263" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>11</v>
+      </c>
+      <c r="F263" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>8</v>
+      </c>
+      <c r="I263" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>20000</v>
+      </c>
+      <c r="B264" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" t="s">
+        <v>9</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" t="s">
+        <v>9</v>
+      </c>
+      <c r="G264">
+        <v>2</v>
+      </c>
+      <c r="H264">
+        <v>6</v>
+      </c>
+      <c r="I264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>20000</v>
+      </c>
+      <c r="B265" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" t="s">
+        <v>9</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
+      </c>
+      <c r="E265" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+      <c r="G265">
+        <v>7</v>
+      </c>
+      <c r="H265">
+        <v>5</v>
+      </c>
+      <c r="I265" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>30000</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>9</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>20</v>
+      </c>
+      <c r="I266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>50000</v>
+      </c>
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>11</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267">
+        <v>2</v>
+      </c>
+      <c r="H267">
+        <v>12</v>
+      </c>
+      <c r="I267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>8000</v>
+      </c>
+      <c r="B268" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" t="s">
+        <v>9</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268">
+        <v>3</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>20000</v>
+      </c>
+      <c r="B269" t="s">
+        <v>10</v>
+      </c>
+      <c r="C269" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269" t="s">
+        <v>11</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269">
+        <v>27</v>
+      </c>
+      <c r="H269">
+        <v>5</v>
+      </c>
+      <c r="I269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>10000</v>
+      </c>
+      <c r="B270" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" t="s">
+        <v>9</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>11</v>
+      </c>
+      <c r="F270" t="s">
+        <v>9</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>7</v>
+      </c>
+      <c r="I270" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>8000</v>
+      </c>
+      <c r="B271" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271" t="s">
+        <v>9</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>11</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271">
+        <v>3</v>
+      </c>
+      <c r="H271">
+        <v>2</v>
+      </c>
+      <c r="I271" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010098325FCFA8A5434294CFE6321A7A9923" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="afe8c0940da9cfcf596d06460f65c6e2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1aa9d33-9ed4-468d-a1ca-cf9da5cde95c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d0e0103819a12089ffaf7c5c3908c59" ns2:_="">
+    <xsd:import namespace="d1aa9d33-9ed4-468d-a1ca-cf9da5cde95c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d1aa9d33-9ed4-468d-a1ca-cf9da5cde95c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{086181DB-8F06-4404-94D9-07D5B9BF8FA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d1aa9d33-9ed4-468d-a1ca-cf9da5cde95c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E5627F1-A59D-4A7C-A4D8-00CCB2ECD8F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3546775A-571C-46C6-A9A8-F2821AA240F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>